--- a/I. Tech + Product/02 - Techno- Economic Modeling/02 - Examples - Curated Cost Models/01 - Sandwich Production Cost Model.xlsx
+++ b/I. Tech + Product/02 - Techno- Economic Modeling/02 - Examples - Curated Cost Models/01 - Sandwich Production Cost Model.xlsx
@@ -160,6 +160,759 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="298">
   <si>
+    <t>Yield Percentage (see NOTES column)</t>
+  </si>
+  <si>
+    <t>Some slices dropped on floor, ends not used</t>
+  </si>
+  <si>
+    <t>sandwiches tested for proper aroma and appearance, usually but not always achieved</t>
+  </si>
+  <si>
+    <t>person-hrs/day</t>
+  </si>
+  <si>
+    <t>PRODUCTION OPERATIONS</t>
+  </si>
+  <si>
+    <t>$/sandwich</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Meat Blocks</t>
+  </si>
+  <si>
+    <t>$/year</t>
+  </si>
+  <si>
+    <t>$/slice</t>
+  </si>
+  <si>
+    <t>$/hr</t>
+  </si>
+  <si>
+    <t>e.g. quote from website 'xx'</t>
+  </si>
+  <si>
+    <t>e.g. quote from catalogue 'yy' when buying 50 kg</t>
+  </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Stage 5</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>managers</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Allows for taxes, benefits, vacations, etc.</t>
+  </si>
+  <si>
+    <t>Electricity - Factory Lighting &amp; HVAC</t>
+  </si>
+  <si>
+    <t>Odor Analyzer</t>
+  </si>
+  <si>
+    <t>Area per Line</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Workflow Space Factor</t>
+  </si>
+  <si>
+    <t>Final Area</t>
+  </si>
+  <si>
+    <t>sq.ft.</t>
+  </si>
+  <si>
+    <t>(price per amount needed for one operating line)</t>
+  </si>
+  <si>
+    <t>Industrial Mixer, 10 gal</t>
+  </si>
+  <si>
+    <t>Materials Handling Tools</t>
+  </si>
+  <si>
+    <t>Oven, Upright, 12 racks</t>
+  </si>
+  <si>
+    <t>Meat Slicer w/ extra blades</t>
+  </si>
+  <si>
+    <t>Table, 24 ft</t>
+  </si>
+  <si>
+    <t>Toaster Oven, Conveyor, 12 sandwich capacity</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Cost of Direct Labor</t>
+  </si>
+  <si>
+    <t>Yield of Final Test</t>
+  </si>
+  <si>
+    <t>Meat Slices per Sandwich</t>
+  </si>
+  <si>
+    <t>MINIMUM</t>
+  </si>
+  <si>
+    <t>MAXIMUM</t>
+  </si>
+  <si>
+    <t>CURRENT VALUE</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Axis Labels</t>
+  </si>
+  <si>
+    <t>(Auto-fills for chart values)</t>
+  </si>
+  <si>
+    <t>(plausible range)</t>
+  </si>
+  <si>
+    <t>(ref other sheet to here)</t>
+  </si>
+  <si>
+    <t>Direct Labor</t>
+  </si>
+  <si>
+    <t>Sub-Total</t>
+  </si>
+  <si>
+    <t>($/sandwich)</t>
+  </si>
+  <si>
+    <t>(e.g. no maintenance, mgmt)</t>
+  </si>
+  <si>
+    <t>Fully Loaded Cost</t>
+  </si>
+  <si>
+    <t>(sandwiches/year)</t>
+  </si>
+  <si>
+    <t>Active:</t>
+  </si>
+  <si>
+    <t>Samples:</t>
+  </si>
+  <si>
+    <t>DIRECT COSTS BY STAGE</t>
+  </si>
+  <si>
+    <t>FULLY LOADED COST, SCALING</t>
+  </si>
+  <si>
+    <t>Current Calculation</t>
+  </si>
+  <si>
+    <t>Prod Vol</t>
+  </si>
+  <si>
+    <t>Prod Cost</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>Plotted Values</t>
+  </si>
+  <si>
+    <t>Case Descriptions</t>
+  </si>
+  <si>
+    <t>Case 1:</t>
+  </si>
+  <si>
+    <t>Case 2:</t>
+  </si>
+  <si>
+    <t>e.g. Default scenario</t>
+  </si>
+  <si>
+    <t>If needed, a place for supporting calculations to help determine inputs into production model or product performance</t>
+  </si>
+  <si>
+    <t>Product Price</t>
+  </si>
+  <si>
+    <t>kW/line</t>
+  </si>
+  <si>
+    <t>Burden Rate (for all labor)</t>
+  </si>
+  <si>
+    <t>Total Base Area (sum of stages)</t>
+  </si>
+  <si>
+    <t>Total as Implemented</t>
+  </si>
+  <si>
+    <t>(includes factor for number of parallel stations from 'Production Model')</t>
+  </si>
+  <si>
+    <t>Production Volume</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>sandwiches/yr</t>
+  </si>
+  <si>
+    <t>Daily PV</t>
+  </si>
+  <si>
+    <t>Operating Days per Year</t>
+  </si>
+  <si>
+    <t>Operating Hours per Operating Day</t>
+  </si>
+  <si>
+    <t>Maximum Allowed Line Utilization</t>
+  </si>
+  <si>
+    <t>days/yr</t>
+  </si>
+  <si>
+    <t>hr/day</t>
+  </si>
+  <si>
+    <t>sandwiches/day</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Yeast</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Raw Buns</t>
+  </si>
+  <si>
+    <t>Labor (Direct)</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Cycle Time</t>
+  </si>
+  <si>
+    <t>Required Gross PV</t>
+  </si>
+  <si>
+    <t>Gross Production Capacity</t>
+  </si>
+  <si>
+    <t>Line Utilization</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>PROCESS VALUE</t>
+  </si>
+  <si>
+    <t>CONSUMPTION/PRODUCTION</t>
+  </si>
+  <si>
+    <t>UNITS</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>g/batch</t>
+  </si>
+  <si>
+    <t>gal/batch</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>workers/line</t>
+  </si>
+  <si>
+    <t>kWh/batch</t>
+  </si>
+  <si>
+    <t>buns/batch</t>
+  </si>
+  <si>
+    <t>hours/batch</t>
+  </si>
+  <si>
+    <t>batches/day</t>
+  </si>
+  <si>
+    <t>prod lines</t>
+  </si>
+  <si>
+    <t>g/day</t>
+  </si>
+  <si>
+    <t>gal/day</t>
+  </si>
+  <si>
+    <t>person-hr/day</t>
+  </si>
+  <si>
+    <t>kWh/day</t>
+  </si>
+  <si>
+    <t>buns/day</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Herbs</t>
+  </si>
+  <si>
+    <t>Baked Buns</t>
+  </si>
+  <si>
+    <t>Meat Block</t>
+  </si>
+  <si>
+    <t>Sliced Meat</t>
+  </si>
+  <si>
+    <t>blocks/batch</t>
+  </si>
+  <si>
+    <t>slices/batch</t>
+  </si>
+  <si>
+    <t>blocks/day</t>
+  </si>
+  <si>
+    <t>slices/day</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Cold Sandwiches</t>
+  </si>
+  <si>
+    <t>sandwiches/batch</t>
+  </si>
+  <si>
+    <t>Toasted Sandwiches</t>
+  </si>
+  <si>
+    <t>Chart Title</t>
+  </si>
+  <si>
+    <t>slices</t>
+  </si>
+  <si>
+    <t>(Equipment distributed with raw values over project life, not discounted values)</t>
+  </si>
+  <si>
+    <t>Inputs of Interest:</t>
+  </si>
+  <si>
+    <t>Cost of Cheese</t>
+  </si>
+  <si>
+    <t>sandwiches/year</t>
+  </si>
+  <si>
+    <t>Meat per Sandwich</t>
+  </si>
+  <si>
+    <t>Main Results:</t>
+  </si>
+  <si>
+    <t>Other Results:</t>
+  </si>
+  <si>
+    <t>No. of Ovens Req'd</t>
+  </si>
+  <si>
+    <t>Toaster Utilization</t>
+  </si>
+  <si>
+    <t>(max may be capped &lt;100%)</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>e.g. referenced from industry experience by so-and-so</t>
+  </si>
+  <si>
+    <t>e.g. material amounts for buns determined from reference recipe</t>
+  </si>
+  <si>
+    <t>COST SENSITIVITY</t>
+  </si>
+  <si>
+    <t>Input Sent to Other Sheet</t>
+  </si>
+  <si>
+    <t>Input from 'Cost Analysis' Sheet</t>
+  </si>
+  <si>
+    <t>Values Legend:</t>
+  </si>
+  <si>
+    <t>Significant Result</t>
+  </si>
+  <si>
+    <t>(Inputs not active here)</t>
+  </si>
+  <si>
+    <t>(just chosen as an example)</t>
+  </si>
+  <si>
+    <t>&lt;-- (Resulting Production Cost)</t>
+  </si>
+  <si>
+    <t>(must send desired output here)--&gt;</t>
+  </si>
+  <si>
+    <t>e.g. do this again but with different equipment (such as a bigger oven or mixer) or other settings</t>
+  </si>
+  <si>
+    <t>Waste Management</t>
+  </si>
+  <si>
+    <t>(pct. of Materials)</t>
+  </si>
+  <si>
+    <t>e.g. Estimate from industry experience</t>
+  </si>
+  <si>
+    <t>Implemented No. Parallel Stations</t>
+  </si>
+  <si>
+    <t>(includes factors for number of parallel stations from 'Production Model')</t>
+  </si>
+  <si>
+    <t>Calories</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Energy-Mass Density</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>g/sandwich</t>
+  </si>
+  <si>
+    <t>cal/g</t>
+  </si>
+  <si>
+    <t>cal/sandwich</t>
+  </si>
+  <si>
+    <t>Mass of Slice</t>
+  </si>
+  <si>
+    <t>g/slice</t>
+  </si>
+  <si>
+    <t>Sandwich Size</t>
+  </si>
+  <si>
+    <t>bites/sandwich</t>
+  </si>
+  <si>
+    <t>Energy Density</t>
+  </si>
+  <si>
+    <t>cal/bite</t>
+  </si>
+  <si>
+    <t>(supporting calculation in determining performance)</t>
+  </si>
+  <si>
+    <t>e.g. measured from prototype or estimated from design specs</t>
+  </si>
+  <si>
+    <t>(made up for example) from numerous customer conversations--this value determined to be important metric for target sector: more calories per bite supports a higher price</t>
+  </si>
+  <si>
+    <t>(made up for example) discovered through primary research--market and customers impose constraints on this value: customer price per calorie must be below certain values or risk losing market segments either to direct competitors or to alternative food sources</t>
+  </si>
+  <si>
+    <t>Customer Cost Effectiveness</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>Fully Loaded Production Cost</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>e.g. Estimate based on expected waste products (non-toxic in example)</t>
+  </si>
+  <si>
+    <t>e.g. quote from equipment catalogue 'yy'</t>
+  </si>
+  <si>
+    <t>e.g. estimate for scientific equipment--may be able to negotiate</t>
+  </si>
+  <si>
+    <t>Production Volume = Sales Forecast</t>
+  </si>
+  <si>
+    <t>OPERATING PLAN</t>
+  </si>
+  <si>
+    <t>/sandwich</t>
+  </si>
+  <si>
+    <t>/g</t>
+  </si>
+  <si>
+    <t>/gal</t>
+  </si>
+  <si>
+    <t>/block</t>
+  </si>
+  <si>
+    <t>/slice</t>
+  </si>
+  <si>
+    <t>/hr</t>
+  </si>
+  <si>
+    <t>/yr/person</t>
+  </si>
+  <si>
+    <t>/kWh</t>
+  </si>
+  <si>
+    <t>/year</t>
+  </si>
+  <si>
+    <t>Total Working Area</t>
+  </si>
+  <si>
+    <t>Building Upfit</t>
+  </si>
+  <si>
+    <t>FF&amp;E (furniture, fixtures, and equipment other than processing and characterization tools)</t>
+  </si>
+  <si>
+    <t>Building Lease</t>
+  </si>
+  <si>
+    <t>e.g. estimate from local rates  (sq footage calculated on "CapEx" sheet)</t>
+  </si>
+  <si>
+    <t>Sub-Totals (per unit)</t>
+  </si>
+  <si>
+    <t>Sub-Totals (annual)</t>
+  </si>
+  <si>
+    <t>Stage 1 - Make Dough &amp; Form Buns</t>
+  </si>
+  <si>
+    <t>Stage 2 - Bake Buns</t>
+  </si>
+  <si>
+    <t>Stage 3 - Slice Meat</t>
+  </si>
+  <si>
+    <t>Stage 4 - Assemble Sandwiches</t>
+  </si>
+  <si>
+    <t>Stage 5 - Toast &amp; Test</t>
+  </si>
+  <si>
+    <t>Indirect</t>
+  </si>
+  <si>
+    <t>Total Operating Expenditure</t>
+  </si>
+  <si>
+    <t>Total Capital Expenditure</t>
+  </si>
+  <si>
+    <t>Capital Depreciation</t>
+  </si>
+  <si>
+    <t>Distributed Capital Cost</t>
+  </si>
+  <si>
+    <t>Operating Cost</t>
+  </si>
+  <si>
+    <t>OpEx + Distributed CapEx</t>
+  </si>
+  <si>
+    <t>Plant Design and Installation Cost</t>
+  </si>
+  <si>
+    <t>Bare Equipment + Tools Sub-Total</t>
+  </si>
+  <si>
+    <t>Equipment + Tools Installed Total</t>
+  </si>
+  <si>
+    <t>(pct. of CapEx)</t>
+  </si>
+  <si>
+    <t>(includes labor burden over base wage)</t>
+  </si>
+  <si>
+    <t>(includes labor burden over base salary)</t>
+  </si>
+  <si>
+    <t>grams/gallon</t>
+  </si>
+  <si>
+    <t>(assume 2,800 g/meat block, cut into slices as in 'Production Model')</t>
+  </si>
+  <si>
+    <t>calculated from ingredients (ignoring water evaporation during baking)</t>
+  </si>
+  <si>
+    <t>(see notes --&gt;)</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>chef</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Estimate at 0.2 kWh/sq.ft./day (guess for example)</t>
+  </si>
+  <si>
+    <t>e.g. from discussion with potential suppliers</t>
+  </si>
+  <si>
+    <t>OPERATING EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Cost Rates</t>
+  </si>
+  <si>
+    <t>$/kcal</t>
+  </si>
+  <si>
+    <t>Equipment Total</t>
+  </si>
+  <si>
+    <t>PERFORMANCE &amp; COST METRICS</t>
+  </si>
+  <si>
+    <t>PERFORMANCE CALCULATIONS</t>
+  </si>
+  <si>
+    <t>(e.g. referenced from website 'xx')</t>
+  </si>
+  <si>
+    <t>(e.g. from published research paper 'yy')</t>
+  </si>
+  <si>
+    <t>(e.g. common industry average, from experts)</t>
+  </si>
+  <si>
+    <t>(e.g. according to supplier specification)</t>
+  </si>
+  <si>
+    <t>(multiplying by number of slices)</t>
+  </si>
+  <si>
+    <t>SUPPORTING VALUES</t>
+  </si>
+  <si>
+    <t>Baking Oven Cycle Time</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
     <t>Production Cost</t>
   </si>
   <si>
@@ -299,759 +1052,6 @@
   </si>
   <si>
     <t>e.g. quote from supplier 'xx' when buying 20 blocks at a time</t>
-  </si>
-  <si>
-    <t>e.g. Estimate based on expected waste products (non-toxic in example)</t>
-  </si>
-  <si>
-    <t>e.g. quote from equipment catalogue 'yy'</t>
-  </si>
-  <si>
-    <t>e.g. estimate for scientific equipment--may be able to negotiate</t>
-  </si>
-  <si>
-    <t>Production Volume = Sales Forecast</t>
-  </si>
-  <si>
-    <t>OPERATING PLAN</t>
-  </si>
-  <si>
-    <t>/sandwich</t>
-  </si>
-  <si>
-    <t>/g</t>
-  </si>
-  <si>
-    <t>/gal</t>
-  </si>
-  <si>
-    <t>/block</t>
-  </si>
-  <si>
-    <t>/slice</t>
-  </si>
-  <si>
-    <t>/hr</t>
-  </si>
-  <si>
-    <t>/yr/person</t>
-  </si>
-  <si>
-    <t>/kWh</t>
-  </si>
-  <si>
-    <t>/year</t>
-  </si>
-  <si>
-    <t>Total Working Area</t>
-  </si>
-  <si>
-    <t>Building Upfit</t>
-  </si>
-  <si>
-    <t>FF&amp;E (furniture, fixtures, and equipment other than processing and characterization tools)</t>
-  </si>
-  <si>
-    <t>Building Lease</t>
-  </si>
-  <si>
-    <t>e.g. estimate from local rates  (sq footage calculated on "CapEx" sheet)</t>
-  </si>
-  <si>
-    <t>Sub-Totals (per unit)</t>
-  </si>
-  <si>
-    <t>Sub-Totals (annual)</t>
-  </si>
-  <si>
-    <t>Stage 1 - Make Dough &amp; Form Buns</t>
-  </si>
-  <si>
-    <t>Stage 2 - Bake Buns</t>
-  </si>
-  <si>
-    <t>Stage 3 - Slice Meat</t>
-  </si>
-  <si>
-    <t>Stage 4 - Assemble Sandwiches</t>
-  </si>
-  <si>
-    <t>Stage 5 - Toast &amp; Test</t>
-  </si>
-  <si>
-    <t>Indirect</t>
-  </si>
-  <si>
-    <t>Total Operating Expenditure</t>
-  </si>
-  <si>
-    <t>Total Capital Expenditure</t>
-  </si>
-  <si>
-    <t>Capital Depreciation</t>
-  </si>
-  <si>
-    <t>Distributed Capital Cost</t>
-  </si>
-  <si>
-    <t>Operating Cost</t>
-  </si>
-  <si>
-    <t>OpEx + Distributed CapEx</t>
-  </si>
-  <si>
-    <t>Plant Design and Installation Cost</t>
-  </si>
-  <si>
-    <t>Bare Equipment + Tools Sub-Total</t>
-  </si>
-  <si>
-    <t>Equipment + Tools Installed Total</t>
-  </si>
-  <si>
-    <t>(pct. of CapEx)</t>
-  </si>
-  <si>
-    <t>(includes labor burden over base wage)</t>
-  </si>
-  <si>
-    <t>(includes labor burden over base salary)</t>
-  </si>
-  <si>
-    <t>grams/gallon</t>
-  </si>
-  <si>
-    <t>(assume 2,800 g/meat block, cut into slices as in 'Production Model')</t>
-  </si>
-  <si>
-    <t>calculated from ingredients (ignoring water evaporation during baking)</t>
-  </si>
-  <si>
-    <t>(see notes --&gt;)</t>
-  </si>
-  <si>
-    <t>Chef</t>
-  </si>
-  <si>
-    <t>chef</t>
-  </si>
-  <si>
-    <t>CapEx</t>
-  </si>
-  <si>
-    <t>Estimate at 0.2 kWh/sq.ft./day (guess for example)</t>
-  </si>
-  <si>
-    <t>e.g. from discussion with potential suppliers</t>
-  </si>
-  <si>
-    <t>OPERATING EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Cost Rates</t>
-  </si>
-  <si>
-    <t>$/kcal</t>
-  </si>
-  <si>
-    <t>Equipment Total</t>
-  </si>
-  <si>
-    <t>PERFORMANCE &amp; COST METRICS</t>
-  </si>
-  <si>
-    <t>PERFORMANCE CALCULATIONS</t>
-  </si>
-  <si>
-    <t>(e.g. referenced from website 'xx')</t>
-  </si>
-  <si>
-    <t>(e.g. from published research paper 'yy')</t>
-  </si>
-  <si>
-    <t>(e.g. common industry average, from experts)</t>
-  </si>
-  <si>
-    <t>(e.g. according to supplier specification)</t>
-  </si>
-  <si>
-    <t>(multiplying by number of slices)</t>
-  </si>
-  <si>
-    <t>SUPPORTING VALUES</t>
-  </si>
-  <si>
-    <t>Baking Oven Cycle Time</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>Chart Title</t>
-  </si>
-  <si>
-    <t>slices</t>
-  </si>
-  <si>
-    <t>(Equipment distributed with raw values over project life, not discounted values)</t>
-  </si>
-  <si>
-    <t>Inputs of Interest:</t>
-  </si>
-  <si>
-    <t>Cost of Cheese</t>
-  </si>
-  <si>
-    <t>sandwiches/year</t>
-  </si>
-  <si>
-    <t>Meat per Sandwich</t>
-  </si>
-  <si>
-    <t>Main Results:</t>
-  </si>
-  <si>
-    <t>Other Results:</t>
-  </si>
-  <si>
-    <t>No. of Ovens Req'd</t>
-  </si>
-  <si>
-    <t>Toaster Utilization</t>
-  </si>
-  <si>
-    <t>(max may be capped &lt;100%)</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>Legend:</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Calculation</t>
-  </si>
-  <si>
-    <t>e.g. referenced from industry experience by so-and-so</t>
-  </si>
-  <si>
-    <t>e.g. material amounts for buns determined from reference recipe</t>
-  </si>
-  <si>
-    <t>COST SENSITIVITY</t>
-  </si>
-  <si>
-    <t>Input Sent to Other Sheet</t>
-  </si>
-  <si>
-    <t>Input from 'Cost Analysis' Sheet</t>
-  </si>
-  <si>
-    <t>Values Legend:</t>
-  </si>
-  <si>
-    <t>Significant Result</t>
-  </si>
-  <si>
-    <t>(Inputs not active here)</t>
-  </si>
-  <si>
-    <t>(just chosen as an example)</t>
-  </si>
-  <si>
-    <t>&lt;-- (Resulting Production Cost)</t>
-  </si>
-  <si>
-    <t>(must send desired output here)--&gt;</t>
-  </si>
-  <si>
-    <t>e.g. do this again but with different equipment (such as a bigger oven or mixer) or other settings</t>
-  </si>
-  <si>
-    <t>Waste Management</t>
-  </si>
-  <si>
-    <t>(pct. of Materials)</t>
-  </si>
-  <si>
-    <t>e.g. Estimate from industry experience</t>
-  </si>
-  <si>
-    <t>Implemented No. Parallel Stations</t>
-  </si>
-  <si>
-    <t>(includes factors for number of parallel stations from 'Production Model')</t>
-  </si>
-  <si>
-    <t>Calories</t>
-  </si>
-  <si>
-    <t>Bread</t>
-  </si>
-  <si>
-    <t>Energy-Mass Density</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>g/sandwich</t>
-  </si>
-  <si>
-    <t>cal/g</t>
-  </si>
-  <si>
-    <t>cal/sandwich</t>
-  </si>
-  <si>
-    <t>Mass of Slice</t>
-  </si>
-  <si>
-    <t>g/slice</t>
-  </si>
-  <si>
-    <t>Sandwich Size</t>
-  </si>
-  <si>
-    <t>bites/sandwich</t>
-  </si>
-  <si>
-    <t>Energy Density</t>
-  </si>
-  <si>
-    <t>cal/bite</t>
-  </si>
-  <si>
-    <t>(supporting calculation in determining performance)</t>
-  </si>
-  <si>
-    <t>e.g. measured from prototype or estimated from design specs</t>
-  </si>
-  <si>
-    <t>(made up for example) from numerous customer conversations--this value determined to be important metric for target sector: more calories per bite supports a higher price</t>
-  </si>
-  <si>
-    <t>(made up for example) discovered through primary research--market and customers impose constraints on this value: customer price per calorie must be below certain values or risk losing market segments either to direct competitors or to alternative food sources</t>
-  </si>
-  <si>
-    <t>Customer Cost Effectiveness</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>OpEx</t>
-  </si>
-  <si>
-    <t>Fully Loaded Production Cost</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>Cost of Direct Labor</t>
-  </si>
-  <si>
-    <t>Yield of Final Test</t>
-  </si>
-  <si>
-    <t>Meat Slices per Sandwich</t>
-  </si>
-  <si>
-    <t>MINIMUM</t>
-  </si>
-  <si>
-    <t>MAXIMUM</t>
-  </si>
-  <si>
-    <t>CURRENT VALUE</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Axis Labels</t>
-  </si>
-  <si>
-    <t>(Auto-fills for chart values)</t>
-  </si>
-  <si>
-    <t>(plausible range)</t>
-  </si>
-  <si>
-    <t>(ref other sheet to here)</t>
-  </si>
-  <si>
-    <t>Direct Labor</t>
-  </si>
-  <si>
-    <t>Sub-Total</t>
-  </si>
-  <si>
-    <t>($/sandwich)</t>
-  </si>
-  <si>
-    <t>(e.g. no maintenance, mgmt)</t>
-  </si>
-  <si>
-    <t>Fully Loaded Cost</t>
-  </si>
-  <si>
-    <t>(sandwiches/year)</t>
-  </si>
-  <si>
-    <t>Active:</t>
-  </si>
-  <si>
-    <t>Samples:</t>
-  </si>
-  <si>
-    <t>DIRECT COSTS BY STAGE</t>
-  </si>
-  <si>
-    <t>FULLY LOADED COST, SCALING</t>
-  </si>
-  <si>
-    <t>Current Calculation</t>
-  </si>
-  <si>
-    <t>Prod Vol</t>
-  </si>
-  <si>
-    <t>Prod Cost</t>
-  </si>
-  <si>
-    <t>Case 1</t>
-  </si>
-  <si>
-    <t>Case 2</t>
-  </si>
-  <si>
-    <t>Plotted Values</t>
-  </si>
-  <si>
-    <t>Case Descriptions</t>
-  </si>
-  <si>
-    <t>Case 1:</t>
-  </si>
-  <si>
-    <t>Case 2:</t>
-  </si>
-  <si>
-    <t>e.g. Default scenario</t>
-  </si>
-  <si>
-    <t>If needed, a place for supporting calculations to help determine inputs into production model or product performance</t>
-  </si>
-  <si>
-    <t>Product Price</t>
-  </si>
-  <si>
-    <t>kW/line</t>
-  </si>
-  <si>
-    <t>Burden Rate (for all labor)</t>
-  </si>
-  <si>
-    <t>Total Base Area (sum of stages)</t>
-  </si>
-  <si>
-    <t>Total as Implemented</t>
-  </si>
-  <si>
-    <t>(includes factor for number of parallel stations from 'Production Model')</t>
-  </si>
-  <si>
-    <t>Production Volume</t>
-  </si>
-  <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>sandwiches/yr</t>
-  </si>
-  <si>
-    <t>Daily PV</t>
-  </si>
-  <si>
-    <t>Operating Days per Year</t>
-  </si>
-  <si>
-    <t>Operating Hours per Operating Day</t>
-  </si>
-  <si>
-    <t>Maximum Allowed Line Utilization</t>
-  </si>
-  <si>
-    <t>days/yr</t>
-  </si>
-  <si>
-    <t>hr/day</t>
-  </si>
-  <si>
-    <t>sandwiches/day</t>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>Flour</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Yeast</t>
-  </si>
-  <si>
-    <t>Outputs</t>
-  </si>
-  <si>
-    <t>Raw Buns</t>
-  </si>
-  <si>
-    <t>Labor (Direct)</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>Cycle Time</t>
-  </si>
-  <si>
-    <t>Required Gross PV</t>
-  </si>
-  <si>
-    <t>Gross Production Capacity</t>
-  </si>
-  <si>
-    <t>Line Utilization</t>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>PROCESS VALUE</t>
-  </si>
-  <si>
-    <t>CONSUMPTION/PRODUCTION</t>
-  </si>
-  <si>
-    <t>UNITS</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>g/batch</t>
-  </si>
-  <si>
-    <t>gal/batch</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>workers/line</t>
-  </si>
-  <si>
-    <t>kWh/batch</t>
-  </si>
-  <si>
-    <t>buns/batch</t>
-  </si>
-  <si>
-    <t>hours/batch</t>
-  </si>
-  <si>
-    <t>batches/day</t>
-  </si>
-  <si>
-    <t>prod lines</t>
-  </si>
-  <si>
-    <t>g/day</t>
-  </si>
-  <si>
-    <t>gal/day</t>
-  </si>
-  <si>
-    <t>person-hr/day</t>
-  </si>
-  <si>
-    <t>kWh/day</t>
-  </si>
-  <si>
-    <t>buns/day</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>Herbs</t>
-  </si>
-  <si>
-    <t>Baked Buns</t>
-  </si>
-  <si>
-    <t>Meat Block</t>
-  </si>
-  <si>
-    <t>Sliced Meat</t>
-  </si>
-  <si>
-    <t>blocks/batch</t>
-  </si>
-  <si>
-    <t>slices/batch</t>
-  </si>
-  <si>
-    <t>blocks/day</t>
-  </si>
-  <si>
-    <t>slices/day</t>
-  </si>
-  <si>
-    <t>Cheese</t>
-  </si>
-  <si>
-    <t>Cold Sandwiches</t>
-  </si>
-  <si>
-    <t>sandwiches/batch</t>
-  </si>
-  <si>
-    <t>Toasted Sandwiches</t>
-  </si>
-  <si>
-    <t>Yield Percentage (see NOTES column)</t>
-  </si>
-  <si>
-    <t>Some slices dropped on floor, ends not used</t>
-  </si>
-  <si>
-    <t>sandwiches tested for proper aroma and appearance, usually but not always achieved</t>
-  </si>
-  <si>
-    <t>person-hrs/day</t>
-  </si>
-  <si>
-    <t>PRODUCTION OPERATIONS</t>
-  </si>
-  <si>
-    <t>$/sandwich</t>
-  </si>
-  <si>
-    <t>Labor</t>
-  </si>
-  <si>
-    <t>Meat Blocks</t>
-  </si>
-  <si>
-    <t>$/year</t>
-  </si>
-  <si>
-    <t>$/slice</t>
-  </si>
-  <si>
-    <t>$/hr</t>
-  </si>
-  <si>
-    <t>e.g. quote from website 'xx'</t>
-  </si>
-  <si>
-    <t>e.g. quote from catalogue 'yy' when buying 50 kg</t>
-  </si>
-  <si>
-    <t>Stage 1</t>
-  </si>
-  <si>
-    <t>Stage 2</t>
-  </si>
-  <si>
-    <t>Stage 3</t>
-  </si>
-  <si>
-    <t>Stage 4</t>
-  </si>
-  <si>
-    <t>Stage 5</t>
-  </si>
-  <si>
-    <t>Direct</t>
-  </si>
-  <si>
-    <t>managers</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Allows for taxes, benefits, vacations, etc.</t>
-  </si>
-  <si>
-    <t>Electricity - Factory Lighting &amp; HVAC</t>
-  </si>
-  <si>
-    <t>Odor Analyzer</t>
-  </si>
-  <si>
-    <t>Area per Line</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Workflow Space Factor</t>
-  </si>
-  <si>
-    <t>Final Area</t>
-  </si>
-  <si>
-    <t>sq.ft.</t>
-  </si>
-  <si>
-    <t>(price per amount needed for one operating line)</t>
-  </si>
-  <si>
-    <t>Industrial Mixer, 10 gal</t>
-  </si>
-  <si>
-    <t>Materials Handling Tools</t>
-  </si>
-  <si>
-    <t>Oven, Upright, 12 racks</t>
-  </si>
-  <si>
-    <t>Meat Slicer w/ extra blades</t>
-  </si>
-  <si>
-    <t>Table, 24 ft</t>
-  </si>
-  <si>
-    <t>Toaster Oven, Conveyor, 12 sandwich capacity</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1065,15 +1065,15 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0.00000_);_(&quot;$&quot;* \(#,##0.00000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0"/>
+    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00000_);_(&quot;$&quot;* \(#,##0.00000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1332,8 +1332,8 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1382,9 +1382,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1393,21 +1393,21 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1418,10 +1418,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1433,8 +1433,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1442,7 +1442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1464,8 +1464,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1478,25 +1478,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1555,6 +1555,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1567,6 +1568,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>'Cost Analysis'!$I$10</c:f>
@@ -1582,6 +1584,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>'Cost Analysis'!$I$12</c:f>
@@ -1597,6 +1600,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>'Cost Analysis'!$I$14</c:f>
@@ -1612,6 +1616,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>'Cost Analysis'!$I$16</c:f>
@@ -1679,6 +1684,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>'Cost Analysis'!$J$10</c:f>
@@ -1694,6 +1700,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>'Cost Analysis'!$J$12</c:f>
@@ -1709,6 +1716,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>'Cost Analysis'!$J$14</c:f>
@@ -1724,6 +1732,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>'Cost Analysis'!$J$16</c:f>
@@ -1785,14 +1794,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="612172056"/>
-        <c:axId val="612063096"/>
+        <c:axId val="611431480"/>
+        <c:axId val="574526424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="612172056"/>
+        <c:axId val="611431480"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1803,14 +1811,14 @@
         <c:spPr>
           <a:ln w="38100"/>
         </c:spPr>
-        <c:crossAx val="612063096"/>
+        <c:crossAx val="574526424"/>
         <c:crossesAt val="3.51"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="612063096"/>
+        <c:axId val="574526424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1829,7 @@
         <c:spPr>
           <a:ln w="38100"/>
         </c:spPr>
-        <c:crossAx val="612172056"/>
+        <c:crossAx val="611431480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1866,6 +1874,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2028,13 +2037,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="611374888"/>
-        <c:axId val="390728248"/>
+        <c:axId val="441768488"/>
+        <c:axId val="441569000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="611374888"/>
+        <c:axId val="441768488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,16 +2063,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390728248"/>
+        <c:crossAx val="441569000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390728248"/>
+        <c:axId val="441569000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,16 +2095,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="611374888"/>
+        <c:crossAx val="441768488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2364,14 +2375,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="435884680"/>
-        <c:axId val="435887928"/>
+        <c:axId val="611557864"/>
+        <c:axId val="612201848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="435884680"/>
+        <c:axId val="611557864"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2382,14 +2392,14 @@
         <c:spPr>
           <a:ln w="38100"/>
         </c:spPr>
-        <c:crossAx val="435887928"/>
+        <c:crossAx val="612201848"/>
         <c:crossesAt val="3.51"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435887928"/>
+        <c:axId val="612201848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,7 +2410,7 @@
         <c:spPr>
           <a:ln w="38100"/>
         </c:spPr>
-        <c:crossAx val="435884680"/>
+        <c:crossAx val="611557864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2607,13 +2617,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="436155944"/>
-        <c:axId val="541829464"/>
+        <c:axId val="530549752"/>
+        <c:axId val="530557080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="436155944"/>
+        <c:axId val="530549752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,14 +2645,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541829464"/>
+        <c:crossAx val="530557080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541829464"/>
+        <c:axId val="530557080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2677,7 @@
         </c:title>
         <c:numFmt formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436155944"/>
+        <c:crossAx val="530549752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2820,12 +2829,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="541450088"/>
-        <c:axId val="436019912"/>
+        <c:axId val="611950920"/>
+        <c:axId val="612016328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="541450088"/>
+        <c:axId val="611950920"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2851,12 +2859,12 @@
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436019912"/>
+        <c:crossAx val="612016328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436019912"/>
+        <c:axId val="612016328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,7 +2889,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541450088"/>
+        <c:crossAx val="611950920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2998,7 +3006,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
@@ -5310,17 +5317,17 @@
   <sheetData>
     <row r="22" spans="2:10">
       <c r="J22" t="s">
-        <v>23</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="J23" t="s">
-        <v>24</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="16" t="s">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -5328,7 +5335,7 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="16" t="s">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -5336,13 +5343,14 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="16" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5370,77 +5378,77 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="28" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="19" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="16" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="B6" s="73">
         <f>'Production Model &amp; OpEx'!B15</f>
         <v>1000000</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="18" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B7" s="18">
         <f>'Production Model &amp; OpEx'!B83</f>
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="18" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B8" s="18">
         <f>'Production Model &amp; OpEx'!H135</f>
         <v>0.35</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="18" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="B9" s="33">
         <f>Financial!B20</f>
         <v>4.1500000000000004</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>265</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5450,57 +5458,57 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="19" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="18" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B13" s="30">
         <f>'Production Model &amp; OpEx'!E146</f>
         <v>3365031.7029917953</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1">
       <c r="A14" s="18" t="s">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="B14" s="30">
         <f>CapEx!B62</f>
         <v>724536</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="18" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B15" s="74">
         <f>Financial!B16</f>
         <v>3.5099389029917951</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>265</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="B16" s="52">
         <f>Financial!B27</f>
         <v>0.92301307296290303</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5510,14 +5518,14 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="19" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B20" s="18">
         <f>'Production Model &amp; OpEx'!B57</f>
@@ -5527,7 +5535,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="18" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B21" s="47">
         <f>'Production Model &amp; OpEx'!B110</f>
@@ -5535,10 +5543,12 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="16" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -5572,27 +5582,27 @@
   <sheetData>
     <row r="2" spans="1:5" s="16" customFormat="1">
       <c r="A2" s="75" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="16" customFormat="1">
       <c r="A3" s="76" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="16" customFormat="1">
       <c r="A4" s="79" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="16" customFormat="1">
       <c r="A5" s="82" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="83" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="16" customFormat="1"/>
@@ -5602,366 +5612,366 @@
     <row r="11" spans="1:5" s="16" customFormat="1"/>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="48" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="110" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="B14" s="110"/>
       <c r="C14" s="110"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="16" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="B15" s="80">
         <f>'Cost Analysis'!C85</f>
         <v>1000000</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>40</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="B16" s="36">
         <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>41</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="B17" s="5">
         <f>B15/B16</f>
         <v>4000</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B18" s="36">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>42</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="B19" s="37">
         <v>0.85</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="110" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="110"/>
     </row>
     <row r="25" spans="1:11" ht="28">
       <c r="A25" s="10" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="19" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="B29" s="39">
         <v>2000</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="E29" s="26">
         <f>B29*B39</f>
         <v>680272.1088435374</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="H29" s="24">
         <f>E29*H129/B17</f>
         <v>0.17006802721088438</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="9" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="B30" s="39">
         <v>0.13</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="E30" s="26">
         <f>B30*B39</f>
         <v>44.217687074829932</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>116</v>
       </c>
       <c r="H30" s="24">
         <f>E30*H130/B17</f>
         <v>1.1054421768707484E-3</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="8" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="B31" s="39">
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="E31" s="26">
         <f>B31*B39</f>
         <v>12244.897959183672</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="H31" s="24">
         <f>E31*H131/B17</f>
         <v>2.9387755102040811E-2</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="9" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="B32" s="39">
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="E32" s="26">
         <f>B32*B39</f>
         <v>8163.2653061224482</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="H32" s="24">
         <f>E32*H132/B17</f>
         <v>6.938775510204082E-4</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="8" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="B33" s="39">
         <v>1.5</v>
       </c>
       <c r="C33" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="E33" s="26">
         <f>B33*B18*B40*B42</f>
         <v>153.0612244897959</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="H33" s="24">
         <f>E33*H137/B17</f>
         <v>0.71747448979591832</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="B34" s="39">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="E34" s="26">
         <f>B34*B39</f>
         <v>680.27210884353735</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="H34" s="24">
         <f>E34*H140/B17</f>
         <v>1.530612244897959E-2</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="9" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="B36" s="36">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="E36" s="26">
         <f>B36*B39</f>
         <v>4081.6326530612241</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="9" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="B38" s="36">
         <v>0.3</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="9" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="B39" s="26">
         <f>B48/B36*B56</f>
         <v>340.13605442176868</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="9" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B40">
         <f>CEILING(B39/(B18/B38)/B19,1)</f>
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="9" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="B41" s="26">
         <f>B40*B18/B38</f>
         <v>426.66666666666669</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="9" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B42" s="6">
         <f>B39/B41</f>
@@ -5970,186 +5980,186 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="19" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="9" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="B48" s="36">
         <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="E48" s="26">
         <f>B48*B$56</f>
         <v>4081.6326530612246</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="B49" s="36">
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="E49" s="26">
         <f>B49*B56</f>
         <v>1700.6802721088436</v>
       </c>
       <c r="F49" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="H49" s="24">
         <f>E49*H133/B17</f>
         <v>0.31887755102040821</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="B50" s="36">
         <v>0.2</v>
       </c>
       <c r="C50" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="E50" s="26">
         <f>B50*B18*B57*B59</f>
         <v>8.5034013605442187</v>
       </c>
       <c r="F50" t="s">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="H50" s="24">
         <f>E50*H137/B17</f>
         <v>3.9859693877551026E-2</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="B51" s="36">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="E51" s="26">
         <f>B51*B56</f>
         <v>1417.2335600907029</v>
       </c>
       <c r="F51" t="s">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="H51" s="24">
         <f>E51*H140/B17</f>
         <v>3.188775510204081E-2</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="3" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="9" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="B53" s="36">
         <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="E53" s="26">
         <f>B53*B56</f>
         <v>4081.6326530612246</v>
       </c>
       <c r="F53" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="3" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="9" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="B55" s="60">
         <f>'Cost Analysis'!C14</f>
         <v>1.5</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="9" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="B56" s="21">
         <f>B84/B53*B90</f>
         <v>28.344671201814059</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="9" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B57">
         <f>CEILING(B56/(B18/B55)/B19,1)</f>
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="9" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="B58" s="21">
         <f>B57*B18/B55</f>
         <v>37.333333333333336</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B59" s="6">
         <f>B56/B58</f>
@@ -6158,184 +6168,184 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="19" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="3" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="9" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="B65" s="36">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="E65" s="26">
         <f>B65*B73</f>
         <v>126.23606143488323</v>
       </c>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H65" s="24">
         <f>E65*H134/B17</f>
         <v>0.59962129181569535</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="9" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="B66" s="36">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="E66" s="26">
         <f>B66*B18*B74*B76</f>
         <v>37.870818430464965</v>
       </c>
       <c r="F66" t="s">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="H66" s="24">
         <f>E66*H137/B17</f>
         <v>0.17751946139280453</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="9" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="B67" s="36">
         <v>0.25</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="E67" s="26">
         <f>B67*B73</f>
         <v>31.559015358720806</v>
       </c>
       <c r="F67" t="s">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="H67" s="24">
         <f>E67*H140/B17</f>
         <v>7.1007784557121812E-4</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="9" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="B69" s="36">
         <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="E69" s="26">
         <f>B69*B73*B70</f>
         <v>12244.897959183672</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="9" t="s">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="B70" s="37">
         <v>0.97</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="K70" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="9" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="B72" s="36">
         <v>0.3</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="9" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="B73" s="26">
         <f>B83/B69*B90/B70</f>
         <v>126.23606143488323</v>
       </c>
       <c r="C73" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="9" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B74">
         <f>CEILING(B73/(B18/B72)/B19,1)</f>
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="9" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="B75" s="26">
         <f>B74*B18/B72</f>
         <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="9" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B76" s="6">
         <f>B73/B75</f>
@@ -6344,180 +6354,180 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="19" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="3" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="9" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="B82" s="36">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="E82" s="26">
         <f>B82*B90</f>
         <v>4081.6326530612246</v>
       </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="H82" s="24">
         <f>E82*H135/B17</f>
         <v>0.3571428571428571</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="9" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="B83" s="60">
         <f>'Cost Analysis'!C16</f>
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="E83" s="26">
         <f>B83*B90</f>
         <v>12244.897959183674</v>
       </c>
       <c r="F83" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="9" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="B84" s="36">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="E84" s="26">
         <f>B84*B90</f>
         <v>4081.6326530612246</v>
       </c>
       <c r="F84" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="9" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="B85" s="36">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="E85" s="26">
         <f>B85*B91*B18*B93</f>
         <v>68.02721088435375</v>
       </c>
       <c r="F85" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
       <c r="H85" s="24">
         <f>E85*H137/B17</f>
         <v>0.31887755102040821</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="3" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="9" t="s">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="B87" s="36">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="E87" s="26">
         <f>B87*B90</f>
         <v>4081.6326530612246</v>
       </c>
       <c r="F87" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="3" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="9" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="B89" s="38">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="9" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="B90" s="26">
         <f>B99/B87*B107</f>
         <v>4081.6326530612246</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="9" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B91">
         <f>CEILING(B90/(B18/B89)/B19,1)</f>
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="9" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="B92">
         <f>B91*B18/B89</f>
         <v>5280</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="9" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B93" s="6">
         <f>B90/B92</f>
@@ -6526,179 +6536,179 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="19" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="9" t="s">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="B99" s="36">
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="E99" s="26">
         <f>B99*B107</f>
         <v>4081.6326530612246</v>
       </c>
       <c r="F99" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="9" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="B100" s="36">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="E100" s="26">
         <f>B100*B108*B18*B110</f>
         <v>40.816326530612251</v>
       </c>
       <c r="F100" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
       <c r="H100" s="24">
         <f>E100*H137/B17</f>
         <v>0.19132653061224494</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="9" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="B101" s="36">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="E101" s="26">
         <f>B101*B108*B18*B110</f>
         <v>326.53061224489801</v>
       </c>
       <c r="F101" t="s">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="H101" s="24">
         <f>E101*H140/B17</f>
         <v>7.3469387755102054E-3</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="9" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="B103" s="36">
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="E103" s="26">
         <f>B103*B107*B104</f>
         <v>4000</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="9" t="s">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="B104" s="81">
         <f>'Cost Analysis'!C12</f>
         <v>0.98</v>
       </c>
       <c r="K104" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="9" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="B106" s="36">
         <f>6/60</f>
         <v>0.1</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="9" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="B107" s="21">
         <f>B17/B103/B104</f>
         <v>408.16326530612247</v>
       </c>
       <c r="C107" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="9" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B108">
         <f>CEILING(B107/(B18/B106)/B19,1)</f>
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="9" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="B109">
         <f>B108*B18/B106</f>
         <v>560</v>
       </c>
       <c r="C109" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="9" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B110" s="6">
         <f>B107/B109</f>
@@ -6707,97 +6717,97 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="19" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3" t="s">
-        <v>266</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="9" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="B116" s="36">
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>279</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:11" s="16" customFormat="1">
       <c r="A117" s="9" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="B117" s="36">
         <v>1</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="9" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="B118" s="37">
         <v>0.5</v>
       </c>
       <c r="K118" t="s">
-        <v>282</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="B119" s="37">
         <v>0.04</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="16"/>
       <c r="K119" s="16" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="49" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B120" s="37">
         <v>0.05</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="B121">
         <f>0.2*CapEx!B56</f>
         <v>3463.92</v>
       </c>
       <c r="C121" t="s">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="H121" s="24">
         <f>B121*H140/B17</f>
         <v>7.7938199999999999E-2</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6805,7 +6815,7 @@
     </row>
     <row r="125" spans="1:11" s="16" customFormat="1">
       <c r="A125" s="110" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="B125" s="110"/>
       <c r="C125" s="110"/>
@@ -6817,441 +6827,442 @@
     </row>
     <row r="127" spans="1:11">
       <c r="B127" s="110" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="C127" s="110"/>
       <c r="E127" s="110" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="F127" s="110"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="B128" s="96">
         <f>SUM(B129:B135)</f>
         <v>1.4768968020197772</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E128" s="98">
         <f>B128*B$15</f>
         <v>1476896.8020197772</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H128" s="110" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="9" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="B129" s="24">
         <f>H29</f>
         <v>0.17006802721088438</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E129" s="31">
         <f t="shared" ref="E129:E142" si="0">B129*B$15</f>
         <v>170068.02721088438</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H129" s="92">
         <v>1E-3</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="K129" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="9" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="B130" s="100">
         <f>H30</f>
         <v>1.1054421768707484E-3</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E130" s="31">
         <f t="shared" si="0"/>
         <v>1105.4421768707484</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H130" s="90">
         <v>0.1</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="9" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="B131" s="99">
         <f>H31</f>
         <v>2.9387755102040811E-2</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E131" s="31">
         <f t="shared" si="0"/>
         <v>29387.75510204081</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H131" s="91">
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="9" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="B132" s="101">
         <f>H32</f>
         <v>6.938775510204082E-4</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E132" s="31">
         <f t="shared" si="0"/>
         <v>693.87755102040819</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H132" s="93">
         <v>3.4000000000000002E-4</v>
       </c>
       <c r="I132" s="16" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="K132" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="9" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="B133" s="24">
         <f>H49</f>
         <v>0.31887755102040821</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E133" s="31">
         <f t="shared" si="0"/>
         <v>318877.55102040822</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H133" s="90">
         <v>0.75</v>
       </c>
       <c r="I133" s="16" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="9" t="s">
-        <v>267</v>
+        <v>7</v>
       </c>
       <c r="B134" s="24">
         <f>H65</f>
         <v>0.59962129181569535</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E134" s="31">
         <f t="shared" si="0"/>
         <v>599621.29181569535</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H134" s="90">
         <v>19</v>
       </c>
       <c r="I134" s="16" t="s">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="K134" s="16" t="s">
-        <v>46</v>
+        <v>297</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="9" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="B135" s="24">
         <f>H82</f>
         <v>0.3571428571428571</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E135" s="31">
         <f t="shared" si="0"/>
         <v>357142.8571428571</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H135" s="90">
         <v>0.35</v>
       </c>
       <c r="I135" s="16" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="K135" s="16" t="s">
-        <v>94</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3" t="s">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="B136" s="96">
         <f>SUM(B137:B139)</f>
         <v>1.7300577266989272</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E136" s="98">
         <f t="shared" si="0"/>
         <v>1730057.7266989271</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="8" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="B137" s="24">
         <f>SUM(H33,H50,H66,H85,H100)</f>
         <v>1.4450577266989271</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E137" s="31">
         <f t="shared" si="0"/>
         <v>1445057.7266989271</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H137" s="94">
         <f>'Cost Analysis'!C10</f>
         <v>18.75</v>
       </c>
       <c r="I137" s="16" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="K137" s="16" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="9" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="B138" s="24">
         <f>H138*B116/B15</f>
         <v>0.16500000000000001</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E138" s="31">
         <f t="shared" si="0"/>
         <v>165000</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H138" s="95">
         <f>55000*(1+B118)</f>
         <v>82500</v>
       </c>
       <c r="I138" s="16" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="K138" s="16" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:11" s="16" customFormat="1">
       <c r="A139" s="9" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="B139" s="24">
         <f>B117*H139/B15</f>
         <v>0.12</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E139" s="31">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H139" s="95">
         <f>80000*(1+B118)</f>
         <v>120000</v>
       </c>
       <c r="I139" s="16" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="K139" s="16" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="B140" s="96">
         <f>SUM(H34,H51,H67,H101)</f>
         <v>5.5250894172101828E-2</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E140" s="98">
         <f t="shared" si="0"/>
         <v>55250.894172101827</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H140" s="90">
         <v>0.09</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="11" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="B141" s="96">
         <f>E141/B15</f>
         <v>2.8981440000000001E-2</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E141" s="98">
         <f>B119*CapEx!B62</f>
         <v>28981.440000000002</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B142" s="96">
         <f>B120*B128</f>
         <v>7.3844840100988865E-2</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E142" s="98">
         <f t="shared" si="0"/>
         <v>73844.840100988862</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="17">
       <c r="A143" s="17" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="B143" s="103">
         <f>E143/B15</f>
         <v>0.17319599999999999</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E143" s="104">
         <f>H143*CapEx!B56</f>
         <v>173196</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H143" s="95">
         <v>10</v>
       </c>
       <c r="I143" s="16" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="K143" s="16" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="18" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="B146" s="97">
         <f>SUM(B128,B136,B140,B141,B142)</f>
         <v>3.3650317029917951</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E146" s="32">
         <f>B146*B15</f>
         <v>3365031.7029917953</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="6">
     <mergeCell ref="H128:I128"/>
     <mergeCell ref="B127:C127"/>
@@ -7287,62 +7298,62 @@
   <sheetData>
     <row r="2" spans="1:4" s="16" customFormat="1">
       <c r="A2" s="75" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1">
       <c r="A3" s="76" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1">
       <c r="A4" s="79" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1">
       <c r="A5" s="82" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1">
       <c r="A6" s="83" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>31</v>
       </c>
       <c r="B12" s="95">
         <v>11000</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="B13" s="95">
         <v>250</v>
@@ -7350,62 +7361,62 @@
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1">
       <c r="A14" s="16" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="B14" s="31">
         <f>(B12+B13)*'Production Model &amp; OpEx'!B40</f>
         <v>180000</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="B15" s="40">
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="16" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="B16" s="29">
         <f>B15*'Production Model &amp; OpEx'!B40</f>
         <v>1600</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="16" customFormat="1"/>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>33</v>
       </c>
       <c r="B19" s="95">
         <v>12000</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="16" customFormat="1">
       <c r="A20" s="16" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="B20" s="31">
         <f>B19*'Production Model &amp; OpEx'!B57</f>
@@ -7414,36 +7425,36 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="B21" s="40">
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="B22" s="34">
         <f>B21*'Production Model &amp; OpEx'!B57</f>
         <v>1050</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="16" customFormat="1"/>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>275</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>34</v>
       </c>
       <c r="B25" s="95">
         <v>1300</v>
@@ -7451,7 +7462,7 @@
     </row>
     <row r="26" spans="1:4" s="16" customFormat="1">
       <c r="A26" s="16" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="B26" s="31">
         <f>B25*'Production Model &amp; OpEx'!B74</f>
@@ -7460,36 +7471,36 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="B27" s="40">
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="16" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="B28" s="29">
         <f>B27*'Production Model &amp; OpEx'!B74</f>
         <v>510</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="16" customFormat="1"/>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
       <c r="B31" s="95">
         <v>450</v>
@@ -7497,7 +7508,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="B32" s="95">
         <v>230</v>
@@ -7505,7 +7516,7 @@
     </row>
     <row r="33" spans="1:4" s="16" customFormat="1">
       <c r="A33" s="16" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="B33" s="31">
         <f>(B31+B32)*'Production Model &amp; OpEx'!B91</f>
@@ -7514,36 +7525,36 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="B34" s="40">
         <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="16" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="B35" s="29">
         <f>B34*'Production Model &amp; OpEx'!B91</f>
         <v>1056</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="16" customFormat="1"/>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="B38" s="95">
         <v>7500</v>
@@ -7552,18 +7563,18 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>284</v>
+        <v>24</v>
       </c>
       <c r="B39" s="95">
         <v>21000</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="16" customFormat="1">
       <c r="A40" s="16" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="B40" s="31">
         <f>(B38+B39)*'Production Model &amp; OpEx'!B108</f>
@@ -7572,36 +7583,36 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="B41" s="40">
         <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="16" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="B42" s="29">
         <f>B41*'Production Model &amp; OpEx'!B108</f>
         <v>595</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="16" customFormat="1"/>
     <row r="44" spans="1:4">
       <c r="A44" s="19" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="16" customFormat="1">
       <c r="A45" s="16" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="B45" s="31">
         <f>SUM(B14,B20,B26,B33,B40)</f>
@@ -7611,7 +7622,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="16" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="B46" s="31">
         <f>0.2*B45</f>
@@ -7619,12 +7630,12 @@
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17">
       <c r="A47" s="18" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="B47" s="107">
         <f>B45+B46</f>
@@ -7635,7 +7646,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="19" t="s">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="18"/>
@@ -7643,101 +7654,100 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="16" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="B52" s="29">
         <f>B15*'Production Model &amp; OpEx'!B40+B21*'Production Model &amp; OpEx'!B57+B27*'Production Model &amp; OpEx'!B74+B34*'Production Model &amp; OpEx'!B91+B41*'Production Model &amp; OpEx'!B108</f>
         <v>4811</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="B53" s="41">
         <v>3</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="16" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="B54" s="29">
         <f>B53*B52</f>
         <v>14433</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="16" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="B55" s="29">
         <f>0.2*B54</f>
         <v>2886.6000000000004</v>
       </c>
       <c r="C55" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="18" t="s">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="B56" s="30">
         <f>B54+B55</f>
         <v>17319.599999999999</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>37</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17">
       <c r="A58" s="16" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="B58" s="108">
         <v>150000</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="102" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="18" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="B62" s="32">
         <f>B47+B58</f>
         <v>724536</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7768,22 +7778,22 @@
     <row r="1" spans="1:4" s="16" customFormat="1"/>
     <row r="2" spans="1:4" s="16" customFormat="1">
       <c r="A2" s="75" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1">
       <c r="A3" s="76" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1">
       <c r="A4" s="82" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="83" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1">
@@ -7806,264 +7816,264 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1">
       <c r="A14" s="19" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B15" s="44">
         <f>SUM(B16,B19,B23)</f>
         <v>780.85666666666668</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B16" s="43">
         <f>B17*B18</f>
         <v>467.75666666666672</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B17" s="42">
         <f>('Production Model &amp; OpEx'!B29+B41*'Production Model &amp; OpEx'!B30+'Production Model &amp; OpEx'!B31+'Production Model &amp; OpEx'!B32)/'Production Model &amp; OpEx'!B36</f>
         <v>212.61666666666667</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B18" s="36">
         <v>2.2000000000000002</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B19" s="17">
         <f>B21*B22</f>
         <v>235.2</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B20" s="36">
         <f>2800/'Production Model &amp; OpEx'!B69</f>
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B21">
         <f>B20*'Production Model &amp; OpEx'!B83</f>
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B22" s="36">
         <v>2.8</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="B23" s="17">
         <f>B25*B26</f>
         <v>77.899999999999991</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B24" s="36">
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B25">
         <f>B24*'Production Model &amp; OpEx'!B82</f>
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B26" s="36">
         <v>4.0999999999999996</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="12" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B28" s="36">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="B30" s="109">
         <v>7.8</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>280</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="19" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28">
       <c r="A33" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B33" s="44">
         <f>B15/B28</f>
         <v>55.775476190476191</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="42">
       <c r="A35" s="1" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B35" s="33">
         <f>Financial!B20/B15*1000</f>
         <v>5.3146757620903538</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="19" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="16" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="B41">
         <v>3780</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8099,207 +8109,207 @@
   <sheetData>
     <row r="2" spans="1:4" s="16" customFormat="1">
       <c r="A2" s="75" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1">
       <c r="A3" s="76" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1">
       <c r="A4" s="79" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1">
       <c r="A5" s="82" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1">
       <c r="A6" s="83" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1"/>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="17" t="s">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="B12" s="16">
         <v>5</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="16" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="B13" s="31">
         <f>CapEx!B62/B12</f>
         <v>144907.20000000001</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="16" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="B14" s="25">
         <f>B13/'Production Model &amp; OpEx'!B15</f>
         <v>0.14490720000000001</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="16" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="B15" s="25">
         <f>'Production Model &amp; OpEx'!B146</f>
         <v>3.3650317029917951</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B16" s="105">
         <f>B14+B15</f>
         <v>3.5099389029917951</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="16" customFormat="1">
       <c r="A20" s="16" t="s">
-        <v>2</v>
+        <v>253</v>
       </c>
       <c r="B20" s="90">
         <v>4.1500000000000004</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>12</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="16" customFormat="1">
       <c r="A21" s="18" t="s">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="B21" s="46">
         <f>1-B16/B20</f>
         <v>0.15423158964053141</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="16" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="B23" s="45">
         <f>'Production Model &amp; OpEx'!E146+Financial!B13</f>
         <v>3509938.9029917954</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>5</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="16" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B24" s="45">
         <f>'Production Model &amp; OpEx'!B15*Financial!B20</f>
         <v>4150000.0000000005</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>6</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="18" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="B25" s="106">
         <f>B24-B23</f>
         <v>640061.09700820502</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="18" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="B27" s="33">
         <f>CapEx!B62/(Financial!B25+B13)</f>
         <v>0.92301307296290303</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8377,7 +8387,6 @@
       <c r="D59" s="15"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -8414,34 +8423,34 @@
     <row r="1" spans="1:13" s="16" customFormat="1"/>
     <row r="2" spans="1:13" s="16" customFormat="1">
       <c r="C2" s="75" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="16" customFormat="1">
       <c r="C3" s="76" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="16" customFormat="1">
       <c r="C4" s="79" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="77" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="19" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="L6" s="51"/>
       <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" s="16" customFormat="1">
       <c r="I7" s="114" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="J7" s="115"/>
       <c r="K7" s="116"/>
@@ -8450,53 +8459,53 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="20" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="I8" s="111" t="s">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="J8" s="112"/>
       <c r="K8" s="61" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:13">
       <c r="C9" s="14" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="D9" s="117" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="E9" s="117"/>
       <c r="F9" s="51"/>
       <c r="I9" s="88" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="K9" s="61"/>
       <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="36" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="C10" s="60">
         <v>18.75</v>
@@ -8534,7 +8543,7 @@
         <v>3.6062760847717232</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="I11" s="65">
         <f>IF(D11&lt;E11,D11,E11)</f>
@@ -8548,10 +8557,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="36" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="C12" s="60">
         <v>0.98</v>
@@ -8578,7 +8587,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="23" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C13" s="54">
         <f>Financial!B16</f>
@@ -8592,7 +8601,7 @@
         <v>3.4674763734666247</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="I13" s="65">
         <f>IF(D13&lt;E13,D13,E13)</f>
@@ -8606,10 +8615,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="36" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="C14" s="60">
         <v>1.5</v>
@@ -8658,10 +8667,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="36" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C16" s="60">
         <v>3</v>
@@ -8719,7 +8728,7 @@
       <c r="I19" s="62"/>
       <c r="J19" s="63"/>
       <c r="K19" s="67" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8735,40 +8744,40 @@
     <row r="41" spans="1:9" s="16" customFormat="1"/>
     <row r="44" spans="1:9">
       <c r="A44" s="19" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="16" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="C46" s="17" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="G46" s="57" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="I46" s="59" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="16" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="C47" s="24">
         <f>SUM('Production Model &amp; OpEx'!H29:H32)</f>
@@ -8793,7 +8802,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="B48" s="16" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="C48" s="24">
         <f>'Production Model &amp; OpEx'!H49</f>
@@ -8818,7 +8827,7 @@
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="16" t="s">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="C49" s="24">
         <f>'Production Model &amp; OpEx'!H65</f>
@@ -8843,7 +8852,7 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="16" t="s">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="C50" s="24">
         <f>'Production Model &amp; OpEx'!H82</f>
@@ -8867,7 +8876,7 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="16" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="C51" s="24">
         <v>0</v>
@@ -8891,7 +8900,7 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="56" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="C52" s="84">
         <f>SUM(C47:C51)</f>
@@ -8914,7 +8923,7 @@
         <v>3.2172914228908058</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" s="16" customFormat="1"/>
@@ -8922,24 +8931,24 @@
     <row r="79" s="16" customFormat="1"/>
     <row r="81" spans="1:9">
       <c r="A81" s="19" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="C82" s="113" t="s">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="D82" s="113"/>
     </row>
     <row r="83" spans="1:9">
       <c r="C83" s="20" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="F83" s="113" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="G83" s="113"/>
       <c r="H83" s="113"/>
@@ -8947,23 +8956,23 @@
     </row>
     <row r="84" spans="1:9">
       <c r="C84" s="14" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="F84" s="117" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="G84" s="117"/>
       <c r="H84" s="117" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="I84" s="117"/>
     </row>
     <row r="85" spans="1:9">
       <c r="B85" s="71" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="C85" s="78">
         <f>1000000</f>
@@ -8974,21 +8983,21 @@
         <v>3.5099389029917951</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="B86" s="23" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="C86" s="35">
         <v>10000</v>
@@ -9146,15 +9155,15 @@
     </row>
     <row r="98" spans="2:8">
       <c r="B98" s="17" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="2:8">
       <c r="B99" s="16" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="C99" s="118" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="D99" s="118"/>
       <c r="E99" s="118"/>
@@ -9164,10 +9173,10 @@
     </row>
     <row r="100" spans="2:8">
       <c r="B100" s="16" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="C100" s="118" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D100" s="118"/>
       <c r="E100" s="118"/>
@@ -9210,7 +9219,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" s="16" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
